--- a/Lower3.xlsx
+++ b/Lower3.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,56 +458,254 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44873.16666666666</v>
+        <v>44090.02083333334</v>
       </c>
       <c r="B2" t="n">
-        <v>19792.34038496746</v>
+        <v>2.5693319781592</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44873.66666666666</v>
+        <v>44090.66666666666</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>19746.93872516882</v>
+        <v>2.626344181182382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44873.80208333334</v>
+        <v>44105.67708333334</v>
       </c>
       <c r="B4" t="n">
-        <v>17771.15346757897</v>
+        <v>2.767587059676764</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44875.13541666666</v>
+        <v>44105.9375</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>16486.65264751405</v>
+        <v>2.830988566391733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44893.0625</v>
+        <v>44106.42708333334</v>
       </c>
       <c r="B6" t="n">
-        <v>16154.39984373569</v>
+        <v>2.46493470209716</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44893.52083333334</v>
+        <v>44106.58333333334</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>16235.99732739341</v>
+        <v>2.630449014213091</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44110.46875</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.388156873432133</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44111.21875</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2.221048679547392</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44124.33333333334</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.933802760926178</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44124.84375</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1.915600803314232</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44130.6875</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.661015460463576</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44131.08333333334</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>1.708347335846987</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44161.14583333334</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.809724619994121</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44161.85416666666</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1.819467800485715</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44173.39583333334</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.681061761354724</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44173.67708333334</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1.731193274007974</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44188.45833333334</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.285333792524691</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44189.0625</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1.265586180957891</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44218.04166666666</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.659821852105991</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44218.15625</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>3.101020120276233</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44242.09375</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.801765455997229</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44242.35416666666</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>8.369873372139002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44304.13541666666</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21.92602548626203</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44304.25</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>24.35933694351101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44326.83333333334</v>
+      </c>
+      <c r="B26" t="n">
+        <v>39.24104286753596</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44326.90625</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>43.53030316279118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44335.53125</v>
+      </c>
+      <c r="B28" t="n">
+        <v>29.68888367864963</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44335.63541666666</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>45.68648690290231</v>
       </c>
     </row>
   </sheetData>
